--- a/Week 8 - Project Cost Estimating/homework/Wk 8 HB Material Template Blank.xlsx
+++ b/Week 8 - Project Cost Estimating/homework/Wk 8 HB Material Template Blank.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My contents\au 2015 Online DL program revision materials\Case related materials\Building case materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksey\Documents\School\UW_Project_Management\PROJECT_420\Week 8 - Project Cost Estimating\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -747,6 +747,12 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,12 +767,6 @@
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -866,6 +866,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -901,6 +918,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1055,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+    <sheetView tabSelected="1" topLeftCell="C101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V136" sqref="V136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1069,13 +1103,14 @@
     <col min="6" max="6" width="8.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15" style="6" customWidth="1"/>
     <col min="10" max="11" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="6" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="6" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" style="6" customWidth="1"/>
     <col min="20" max="20" width="2.7109375" style="6" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="6"/>
@@ -1100,12 +1135,12 @@
       <c r="S1" s="11"/>
     </row>
     <row r="2" spans="2:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
+      <c r="B3" s="62"/>
     </row>
     <row r="4" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -1115,18 +1150,18 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="66"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
@@ -1238,7 +1273,7 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1248,8 +1283,12 @@
       <c r="E7" s="25"/>
       <c r="F7" s="15"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
@@ -1266,7 +1305,7 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1274,8 +1313,12 @@
       <c r="E8" s="25"/>
       <c r="F8" s="15"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="26">
+        <v>300</v>
+      </c>
+      <c r="I8" s="27">
+        <v>300</v>
+      </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -1287,12 +1330,12 @@
       <c r="R8" s="27"/>
       <c r="S8" s="28">
         <f t="shared" ref="S8:S10" si="1">SUM(I8:R8)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1301,14 +1344,19 @@
       <c r="F9" s="15"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29">
-        <f>F9*G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="27"/>
+        <v>5000</v>
+      </c>
+      <c r="I9" s="27">
+        <v>4000</v>
+      </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="27">
+        <v>500</v>
+      </c>
+      <c r="M9" s="27">
+        <v>500</v>
+      </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
@@ -1316,12 +1364,12 @@
       <c r="R9" s="27"/>
       <c r="S9" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -1345,7 +1393,7 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="61"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="33" t="s">
         <v>16</v>
       </c>
@@ -1358,11 +1406,11 @@
       </c>
       <c r="H11" s="36">
         <f>SUM(H7:H10)</f>
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="I11" s="36">
         <f t="shared" ref="I11:R11" si="2">SUM(I7:I10)</f>
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="2"/>
@@ -1374,11 +1422,11 @@
       </c>
       <c r="L11" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M11" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N11" s="36">
         <f t="shared" si="2"/>
@@ -1402,7 +1450,7 @@
       </c>
       <c r="S11" s="37">
         <f>SUM(S7:S10)</f>
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="T11" s="3"/>
     </row>
@@ -1428,7 +1476,7 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1439,10 +1487,11 @@
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="29">
-        <f t="shared" ref="H13:H17" si="3">F13*G13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="27"/>
+        <v>5000</v>
+      </c>
+      <c r="I13" s="27">
+        <v>5000</v>
+      </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
@@ -1453,13 +1502,13 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
       <c r="S13" s="28">
-        <f t="shared" ref="S13:S17" si="4">SUM(I13:R13)</f>
-        <v>0</v>
+        <f t="shared" ref="S13:S17" si="3">SUM(I13:R13)</f>
+        <v>5000</v>
       </c>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="61"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1468,10 +1517,11 @@
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
       <c r="H14" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="27"/>
+        <v>4500</v>
+      </c>
+      <c r="I14" s="27">
+        <v>4500</v>
+      </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -1482,13 +1532,13 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4500</v>
       </c>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="61"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,10 +1547,11 @@
       <c r="F15" s="31"/>
       <c r="G15" s="32"/>
       <c r="H15" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="27"/>
+        <v>5000</v>
+      </c>
+      <c r="I15" s="27">
+        <v>5000</v>
+      </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -1511,20 +1562,20 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5000</v>
       </c>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="1"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="32"/>
       <c r="H16" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H13:H17" si="4">F16*G16</f>
         <v>0</v>
       </c>
       <c r="I16" s="27"/>
@@ -1538,20 +1589,20 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
       <c r="H17" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17" s="27"/>
@@ -1565,13 +1616,13 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="33" t="s">
         <v>16</v>
       </c>
@@ -1584,11 +1635,11 @@
       </c>
       <c r="H18" s="36">
         <f>SUM(H13:H17)</f>
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="I18" s="36">
         <f t="shared" ref="I18:R18" si="5">SUM(I13:I17)</f>
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="J18" s="36">
         <f t="shared" si="5"/>
@@ -1628,7 +1679,7 @@
       </c>
       <c r="S18" s="37">
         <f>SUM(S13:S17)</f>
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="T18" s="3"/>
     </row>
@@ -1654,7 +1705,7 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="67" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1665,10 +1716,11 @@
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
       <c r="H20" s="29">
-        <f t="shared" ref="H20:H29" si="6">F20*G20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="27"/>
+        <v>3000</v>
+      </c>
+      <c r="I20" s="27">
+        <v>3000</v>
+      </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -1679,13 +1731,13 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="28">
-        <f t="shared" ref="S20:S29" si="7">SUM(I20:R20)</f>
-        <v>0</v>
+        <f t="shared" ref="S20:S29" si="6">SUM(I20:R20)</f>
+        <v>3000</v>
       </c>
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="65"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,10 +1746,11 @@
       <c r="F21" s="31"/>
       <c r="G21" s="32"/>
       <c r="H21" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="27"/>
+        <v>2000</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2000</v>
+      </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -1708,13 +1761,13 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="65"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1723,10 +1776,11 @@
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="27"/>
+        <v>1500</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1500</v>
+      </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -1737,13 +1791,13 @@
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1500</v>
       </c>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="65"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1752,7 +1806,7 @@
       <c r="F23" s="31"/>
       <c r="G23" s="32"/>
       <c r="H23" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H20:H29" si="7">F23*G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="27"/>
@@ -1766,13 +1820,13 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="65"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1781,10 +1835,11 @@
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="27"/>
+        <v>300</v>
+      </c>
+      <c r="I24" s="27">
+        <v>300</v>
+      </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -1795,13 +1850,13 @@
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="65"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1810,10 +1865,11 @@
       <c r="F25" s="31"/>
       <c r="G25" s="32"/>
       <c r="H25" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="27"/>
+        <v>500</v>
+      </c>
+      <c r="I25" s="27">
+        <v>500</v>
+      </c>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -1824,13 +1880,13 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>500</v>
       </c>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="65"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1839,11 +1895,12 @@
       <c r="F26" s="31"/>
       <c r="G26" s="32"/>
       <c r="H26" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="27">
+        <v>540</v>
+      </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
@@ -1853,13 +1910,13 @@
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>540</v>
       </c>
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="65"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1868,11 +1925,12 @@
       <c r="F27" s="40"/>
       <c r="G27" s="41"/>
       <c r="H27" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="27">
+        <v>200</v>
+      </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
@@ -1882,24 +1940,25 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="65"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="1"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="31"/>
       <c r="G28" s="32"/>
       <c r="H28" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="J28" s="27">
+        <v>800</v>
+      </c>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
@@ -1909,20 +1968,20 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>800</v>
       </c>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="65"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="1"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="31"/>
       <c r="G29" s="32"/>
       <c r="H29" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I29" s="27"/>
@@ -1936,13 +1995,13 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="65"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="33" t="s">
         <v>16</v>
       </c>
@@ -1955,15 +2014,15 @@
       </c>
       <c r="H30" s="36">
         <f>SUM(H20:H29)</f>
-        <v>0</v>
+        <v>8840</v>
       </c>
       <c r="I30" s="36">
         <f t="shared" ref="I30:R30" si="8">SUM(I20:I29)</f>
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="J30" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="K30" s="36">
         <f t="shared" si="8"/>
@@ -1999,7 +2058,7 @@
       </c>
       <c r="S30" s="37">
         <f>SUM(S20:S29)</f>
-        <v>0</v>
+        <v>8840</v>
       </c>
       <c r="T30" s="3"/>
     </row>
@@ -2025,7 +2084,7 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2036,11 +2095,12 @@
       <c r="F32" s="15"/>
       <c r="G32" s="50"/>
       <c r="H32" s="29">
-        <f t="shared" ref="H32:H43" si="9">F32*G32</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="J32" s="27">
+        <v>1200</v>
+      </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -2050,13 +2110,13 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="28">
-        <f t="shared" ref="S32:S43" si="10">SUM(I32:R32)</f>
-        <v>0</v>
+        <f t="shared" ref="S32:S43" si="9">SUM(I32:R32)</f>
+        <v>1200</v>
       </c>
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="65"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2065,11 +2125,12 @@
       <c r="F33" s="31"/>
       <c r="G33" s="32"/>
       <c r="H33" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="J33" s="27">
+        <v>400</v>
+      </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
@@ -2079,13 +2140,13 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>400</v>
       </c>
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="65"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2094,11 +2155,12 @@
       <c r="F34" s="45"/>
       <c r="G34" s="50"/>
       <c r="H34" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
+      <c r="J34" s="27">
+        <v>1200</v>
+      </c>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
@@ -2108,13 +2170,13 @@
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
       <c r="S34" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1200</v>
       </c>
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="65"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2123,11 +2185,12 @@
       <c r="F35" s="31"/>
       <c r="G35" s="32"/>
       <c r="H35" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="J35" s="27">
+        <v>1200</v>
+      </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
@@ -2137,13 +2200,13 @@
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1200</v>
       </c>
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="65"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2152,11 +2215,12 @@
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="J36" s="27">
+        <v>400</v>
+      </c>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
@@ -2166,13 +2230,13 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>400</v>
       </c>
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="65"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2181,11 +2245,12 @@
       <c r="F37" s="31"/>
       <c r="G37" s="32"/>
       <c r="H37" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="J37" s="27">
+        <v>1200</v>
+      </c>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
@@ -2195,13 +2260,13 @@
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1200</v>
       </c>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="65"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2210,12 +2275,13 @@
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
+      <c r="K38" s="27">
+        <v>1200</v>
+      </c>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
@@ -2224,13 +2290,13 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1200</v>
       </c>
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="65"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,12 +2305,13 @@
       <c r="F39" s="31"/>
       <c r="G39" s="32"/>
       <c r="H39" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
+      <c r="K39" s="27">
+        <v>400</v>
+      </c>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
@@ -2253,13 +2320,13 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>400</v>
       </c>
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="65"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2268,12 +2335,13 @@
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="K40" s="27">
+        <v>400</v>
+      </c>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
@@ -2282,13 +2350,13 @@
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>400</v>
       </c>
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="65"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,12 +2365,13 @@
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
       <c r="H41" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="K41" s="27">
+        <v>2000</v>
+      </c>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
@@ -2311,25 +2380,26 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2000</v>
       </c>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="1"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="31"/>
       <c r="G42" s="32"/>
       <c r="H42" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="K42" s="27">
+        <v>200</v>
+      </c>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
@@ -2338,20 +2408,20 @@
       <c r="Q42" s="27"/>
       <c r="R42" s="27"/>
       <c r="S42" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="65"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="1"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
       <c r="H43" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H32:H43" si="10">F43*G43</f>
         <v>0</v>
       </c>
       <c r="I43" s="27"/>
@@ -2365,13 +2435,13 @@
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
       <c r="S43" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="65"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="33" t="s">
         <v>16</v>
       </c>
@@ -2384,7 +2454,7 @@
       </c>
       <c r="H44" s="36">
         <f>SUM(H32:H43)</f>
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="I44" s="36">
         <f t="shared" ref="I44:R44" si="11">SUM(I32:I43)</f>
@@ -2392,11 +2462,11 @@
       </c>
       <c r="J44" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="K44" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="L44" s="36">
         <f t="shared" si="11"/>
@@ -2428,7 +2498,7 @@
       </c>
       <c r="S44" s="37">
         <f>SUM(S32:S43)</f>
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="T44" s="3"/>
     </row>
@@ -2454,7 +2524,7 @@
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="63" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2465,11 +2535,12 @@
       <c r="F46" s="40"/>
       <c r="G46" s="41"/>
       <c r="H46" s="29">
-        <f t="shared" ref="H46:H54" si="12">F46*G46</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="J46" s="27">
+        <v>3000</v>
+      </c>
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
@@ -2479,13 +2550,13 @@
       <c r="Q46" s="27"/>
       <c r="R46" s="27"/>
       <c r="S46" s="28">
-        <f t="shared" ref="S46:S54" si="13">SUM(I46:R46)</f>
-        <v>0</v>
+        <f t="shared" ref="S46:S54" si="12">SUM(I46:R46)</f>
+        <v>3000</v>
       </c>
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="61"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="1" t="s">
         <v>42</v>
       </c>
@@ -2494,12 +2565,13 @@
       <c r="F47" s="45"/>
       <c r="G47" s="32"/>
       <c r="H47" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
+      <c r="K47" s="27">
+        <v>3000</v>
+      </c>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
@@ -2508,13 +2580,13 @@
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
       <c r="S47" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>3000</v>
       </c>
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="61"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,12 +2595,13 @@
       <c r="F48" s="45"/>
       <c r="G48" s="46"/>
       <c r="H48" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="K48" s="27">
+        <v>1200</v>
+      </c>
       <c r="L48" s="27"/>
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
@@ -2537,13 +2610,13 @@
       <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
       <c r="S48" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1200</v>
       </c>
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="61"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
@@ -2552,12 +2625,13 @@
       <c r="F49" s="45"/>
       <c r="G49" s="46"/>
       <c r="H49" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
+      <c r="K49" s="27">
+        <v>1300</v>
+      </c>
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
@@ -2566,13 +2640,13 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1300</v>
       </c>
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="61"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="1" t="s">
         <v>45</v>
       </c>
@@ -2581,12 +2655,13 @@
       <c r="F50" s="45"/>
       <c r="G50" s="46"/>
       <c r="H50" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="K50" s="27">
+        <v>700</v>
+      </c>
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
@@ -2595,13 +2670,13 @@
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>700</v>
       </c>
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="61"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
@@ -2610,12 +2685,14 @@
       <c r="F51" s="15"/>
       <c r="G51" s="50"/>
       <c r="H51" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H46:H54" si="13">F51*G51</f>
         <v>0</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="K51" s="27">
+        <v>4000</v>
+      </c>
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
@@ -2624,13 +2701,13 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4000</v>
       </c>
       <c r="T51" s="3"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="61"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2639,12 +2716,14 @@
       <c r="F52" s="15"/>
       <c r="G52" s="50"/>
       <c r="H52" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="K52" s="27">
+        <v>4000</v>
+      </c>
       <c r="L52" s="27"/>
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
@@ -2653,20 +2732,20 @@
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4000</v>
       </c>
       <c r="T52" s="3"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="61"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="1"/>
       <c r="D53" s="52"/>
       <c r="E53" s="52"/>
       <c r="F53" s="45"/>
       <c r="G53" s="46"/>
       <c r="H53" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I53" s="27"/>
@@ -2680,20 +2759,20 @@
       <c r="Q53" s="27"/>
       <c r="R53" s="27"/>
       <c r="S53" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="61"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="1"/>
       <c r="D54" s="52"/>
       <c r="E54" s="52"/>
       <c r="F54" s="45"/>
       <c r="G54" s="46"/>
       <c r="H54" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I54" s="27"/>
@@ -2707,13 +2786,13 @@
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
       <c r="S54" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T54" s="3"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="61"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="33" t="s">
         <v>16</v>
       </c>
@@ -2726,7 +2805,7 @@
       </c>
       <c r="H55" s="36">
         <f>SUM(H46:H54)</f>
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="I55" s="36">
         <f>SUM(I46:I54)</f>
@@ -2734,11 +2813,11 @@
       </c>
       <c r="J55" s="36">
         <f t="shared" ref="J55:R55" si="14">SUM(J46:J54)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K55" s="36">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>14200</v>
       </c>
       <c r="L55" s="36">
         <f t="shared" si="14"/>
@@ -2770,7 +2849,7 @@
       </c>
       <c r="S55" s="37">
         <f>SUM(S46:S54)</f>
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="T55" s="3"/>
     </row>
@@ -2796,7 +2875,7 @@
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2807,12 +2886,13 @@
       <c r="F57" s="45"/>
       <c r="G57" s="32"/>
       <c r="H57" s="29">
-        <f t="shared" ref="H57:H60" si="15">F57*G57</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
+      <c r="K57" s="27">
+        <v>1500</v>
+      </c>
       <c r="L57" s="27"/>
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
@@ -2821,13 +2901,13 @@
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
       <c r="S57" s="28">
-        <f t="shared" ref="S57:S60" si="16">SUM(I57:R57)</f>
-        <v>0</v>
+        <f t="shared" ref="S57:S60" si="15">SUM(I57:R57)</f>
+        <v>1500</v>
       </c>
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="61"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2836,13 +2916,16 @@
       <c r="F58" s="45"/>
       <c r="G58" s="32"/>
       <c r="H58" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
+      <c r="K58" s="27">
+        <v>3000</v>
+      </c>
+      <c r="L58" s="27">
+        <v>3000</v>
+      </c>
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
       <c r="O58" s="27"/>
@@ -2850,13 +2933,13 @@
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="28">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6000</v>
       </c>
       <c r="T58" s="3"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="61"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2865,13 +2948,14 @@
       <c r="F59" s="45"/>
       <c r="G59" s="46"/>
       <c r="H59" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
+      <c r="L59" s="27">
+        <v>600</v>
+      </c>
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
       <c r="O59" s="27"/>
@@ -2879,20 +2963,20 @@
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="28">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>600</v>
       </c>
       <c r="T59" s="3"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="61"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="43"/>
       <c r="D60" s="44"/>
       <c r="E60" s="43"/>
       <c r="F60" s="45"/>
       <c r="G60" s="46"/>
       <c r="H60" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H57:H60" si="16">F60*G60</f>
         <v>0</v>
       </c>
       <c r="I60" s="27"/>
@@ -2906,13 +2990,13 @@
       <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
       <c r="S60" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T60" s="3"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="61"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="33" t="s">
         <v>16</v>
       </c>
@@ -2925,7 +3009,7 @@
       </c>
       <c r="H61" s="36">
         <f>SUM(H57:H60)</f>
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="I61" s="36">
         <f t="shared" ref="I61:R61" si="17">SUM(I57:I60)</f>
@@ -2937,11 +3021,11 @@
       </c>
       <c r="K61" s="36">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="L61" s="36">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="M61" s="36">
         <f t="shared" si="17"/>
@@ -2969,7 +3053,7 @@
       </c>
       <c r="S61" s="37">
         <f>SUM(S57:S60)</f>
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="T61" s="3"/>
     </row>
@@ -2995,7 +3079,7 @@
       <c r="T62" s="3"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="63" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3006,12 +3090,15 @@
       <c r="F63" s="45"/>
       <c r="G63" s="50"/>
       <c r="H63" s="29">
-        <f t="shared" ref="H63:H72" si="18">F63*G63</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
+      <c r="J63" s="27">
+        <v>1000</v>
+      </c>
+      <c r="K63" s="27">
+        <v>1000</v>
+      </c>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
@@ -3020,13 +3107,13 @@
       <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
       <c r="S63" s="28">
-        <f t="shared" ref="S63:S72" si="19">SUM(I63:R63)</f>
-        <v>0</v>
+        <f t="shared" ref="S63:S72" si="18">SUM(I63:R63)</f>
+        <v>2000</v>
       </c>
       <c r="T63" s="3"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="61"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="1" t="s">
         <v>54</v>
       </c>
@@ -3035,12 +3122,13 @@
       <c r="F64" s="45"/>
       <c r="G64" s="54"/>
       <c r="H64" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
+      <c r="K64" s="27">
+        <v>200</v>
+      </c>
       <c r="L64" s="27"/>
       <c r="M64" s="27"/>
       <c r="N64" s="27"/>
@@ -3049,13 +3137,13 @@
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
       <c r="S64" s="28">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>200</v>
       </c>
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="61"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="1" t="s">
         <v>55</v>
       </c>
@@ -3064,10 +3152,11 @@
       <c r="F65" s="45"/>
       <c r="G65" s="32"/>
       <c r="H65" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="27"/>
+        <v>600</v>
+      </c>
+      <c r="I65" s="27">
+        <v>600</v>
+      </c>
       <c r="J65" s="27"/>
       <c r="K65" s="27"/>
       <c r="L65" s="27"/>
@@ -3078,13 +3167,13 @@
       <c r="Q65" s="27"/>
       <c r="R65" s="27"/>
       <c r="S65" s="28">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>600</v>
       </c>
       <c r="T65" s="3"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="61"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="1" t="s">
         <v>56</v>
       </c>
@@ -3093,12 +3182,13 @@
       <c r="F66" s="45"/>
       <c r="G66" s="46"/>
       <c r="H66" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I66" s="27"/>
       <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
+      <c r="K66" s="27">
+        <v>600</v>
+      </c>
       <c r="L66" s="27"/>
       <c r="M66" s="27"/>
       <c r="N66" s="27"/>
@@ -3107,13 +3197,13 @@
       <c r="Q66" s="27"/>
       <c r="R66" s="27"/>
       <c r="S66" s="28">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>600</v>
       </c>
       <c r="T66" s="3"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="61"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="1" t="s">
         <v>57</v>
       </c>
@@ -3122,12 +3212,13 @@
       <c r="F67" s="45"/>
       <c r="G67" s="46"/>
       <c r="H67" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I67" s="27"/>
       <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
+      <c r="K67" s="27">
+        <v>200</v>
+      </c>
       <c r="L67" s="27"/>
       <c r="M67" s="27"/>
       <c r="N67" s="27"/>
@@ -3136,13 +3227,13 @@
       <c r="Q67" s="27"/>
       <c r="R67" s="27"/>
       <c r="S67" s="28">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>200</v>
       </c>
       <c r="T67" s="3"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="61"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="1" t="s">
         <v>58</v>
       </c>
@@ -3151,12 +3242,15 @@
       <c r="F68" s="45"/>
       <c r="G68" s="46"/>
       <c r="H68" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
+      <c r="J68" s="27">
+        <v>1000</v>
+      </c>
+      <c r="K68" s="27">
+        <v>500</v>
+      </c>
       <c r="L68" s="27"/>
       <c r="M68" s="27"/>
       <c r="N68" s="27"/>
@@ -3165,13 +3259,13 @@
       <c r="Q68" s="27"/>
       <c r="R68" s="27"/>
       <c r="S68" s="28">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1500</v>
       </c>
       <c r="T68" s="3"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B69" s="61"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="1" t="s">
         <v>59</v>
       </c>
@@ -3180,12 +3274,13 @@
       <c r="F69" s="45"/>
       <c r="G69" s="46"/>
       <c r="H69" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="K69" s="27">
+        <v>300</v>
+      </c>
       <c r="L69" s="27"/>
       <c r="M69" s="27"/>
       <c r="N69" s="27"/>
@@ -3194,13 +3289,13 @@
       <c r="Q69" s="27"/>
       <c r="R69" s="27"/>
       <c r="S69" s="28">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>300</v>
       </c>
       <c r="T69" s="3"/>
     </row>
     <row r="70" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="61"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="1" t="s">
         <v>60</v>
       </c>
@@ -3209,11 +3304,12 @@
       <c r="F70" s="45"/>
       <c r="G70" s="46"/>
       <c r="H70" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
+      <c r="J70" s="27">
+        <v>10000</v>
+      </c>
       <c r="K70" s="27"/>
       <c r="L70" s="27"/>
       <c r="M70" s="27"/>
@@ -3223,20 +3319,20 @@
       <c r="Q70" s="27"/>
       <c r="R70" s="27"/>
       <c r="S70" s="28">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>10000</v>
       </c>
       <c r="T70" s="3"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="61"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="43"/>
       <c r="D71" s="44"/>
       <c r="E71" s="43"/>
       <c r="F71" s="45"/>
       <c r="G71" s="46"/>
       <c r="H71" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H63:H72" si="19">F71*G71</f>
         <v>0</v>
       </c>
       <c r="I71" s="27"/>
@@ -3250,20 +3346,20 @@
       <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
       <c r="S71" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T71" s="3"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="61"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="43"/>
       <c r="D72" s="44"/>
       <c r="E72" s="43"/>
       <c r="F72" s="45"/>
       <c r="G72" s="46"/>
       <c r="H72" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I72" s="27"/>
@@ -3277,13 +3373,13 @@
       <c r="Q72" s="27"/>
       <c r="R72" s="27"/>
       <c r="S72" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T72" s="3"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="33" t="s">
         <v>16</v>
       </c>
@@ -3296,19 +3392,19 @@
       </c>
       <c r="H73" s="36">
         <f>SUM(H63:H72)</f>
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="I73" s="36">
         <f t="shared" ref="I73:R73" si="20">SUM(I63:I72)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J73" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="K73" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="L73" s="36">
         <f t="shared" si="20"/>
@@ -3340,7 +3436,7 @@
       </c>
       <c r="S73" s="37">
         <f>SUM(S63:S72)</f>
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="T73" s="3"/>
     </row>
@@ -3366,7 +3462,7 @@
       <c r="T74" s="3"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3377,12 +3473,13 @@
       <c r="F75" s="45"/>
       <c r="G75" s="50"/>
       <c r="H75" s="29">
-        <f t="shared" ref="H75:H118" si="21">F75*G75</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I75" s="27"/>
       <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="K75" s="27">
+        <v>800</v>
+      </c>
       <c r="L75" s="27"/>
       <c r="M75" s="27"/>
       <c r="N75" s="27"/>
@@ -3391,13 +3488,13 @@
       <c r="Q75" s="27"/>
       <c r="R75" s="27"/>
       <c r="S75" s="28">
-        <f t="shared" ref="S75:S118" si="22">SUM(I75:R75)</f>
-        <v>0</v>
+        <f t="shared" ref="S75:S118" si="21">SUM(I75:R75)</f>
+        <v>800</v>
       </c>
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="61"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="1" t="s">
         <v>63</v>
       </c>
@@ -3406,13 +3503,14 @@
       <c r="F76" s="45"/>
       <c r="G76" s="50"/>
       <c r="H76" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I76" s="27"/>
       <c r="J76" s="27"/>
       <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
+      <c r="L76" s="27">
+        <v>800</v>
+      </c>
       <c r="M76" s="27"/>
       <c r="N76" s="27"/>
       <c r="O76" s="27"/>
@@ -3420,13 +3518,13 @@
       <c r="Q76" s="27"/>
       <c r="R76" s="27"/>
       <c r="S76" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>800</v>
       </c>
       <c r="T76" s="3"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="61"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="1" t="s">
         <v>64</v>
       </c>
@@ -3435,13 +3533,14 @@
       <c r="F77" s="45"/>
       <c r="G77" s="50"/>
       <c r="H77" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I77" s="27"/>
       <c r="J77" s="27"/>
       <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
+      <c r="L77" s="27">
+        <v>600</v>
+      </c>
       <c r="M77" s="27"/>
       <c r="N77" s="27"/>
       <c r="O77" s="27"/>
@@ -3449,13 +3548,13 @@
       <c r="Q77" s="27"/>
       <c r="R77" s="27"/>
       <c r="S77" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="T77" s="3"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="61"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="1" t="s">
         <v>65</v>
       </c>
@@ -3464,13 +3563,14 @@
       <c r="F78" s="45"/>
       <c r="G78" s="50"/>
       <c r="H78" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I78" s="27"/>
       <c r="J78" s="27"/>
       <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
+      <c r="L78" s="27">
+        <v>250</v>
+      </c>
       <c r="M78" s="27"/>
       <c r="N78" s="27"/>
       <c r="O78" s="27"/>
@@ -3478,20 +3578,20 @@
       <c r="Q78" s="27"/>
       <c r="R78" s="27"/>
       <c r="S78" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>250</v>
       </c>
       <c r="T78" s="3"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="61"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="45"/>
       <c r="G79" s="50"/>
       <c r="H79" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H75:H118" si="22">F79*G79</f>
         <v>0</v>
       </c>
       <c r="I79" s="27"/>
@@ -3505,13 +3605,13 @@
       <c r="Q79" s="27"/>
       <c r="R79" s="27"/>
       <c r="S79" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T79" s="3"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="61"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="1" t="s">
         <v>66</v>
       </c>
@@ -3520,13 +3620,14 @@
       <c r="F80" s="45"/>
       <c r="G80" s="50"/>
       <c r="H80" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
       <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
+      <c r="L80" s="27">
+        <v>1200</v>
+      </c>
       <c r="M80" s="27"/>
       <c r="N80" s="27"/>
       <c r="O80" s="27"/>
@@ -3534,13 +3635,13 @@
       <c r="Q80" s="27"/>
       <c r="R80" s="27"/>
       <c r="S80" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1200</v>
       </c>
       <c r="T80" s="3"/>
     </row>
     <row r="81" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="61"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="1" t="s">
         <v>67</v>
       </c>
@@ -3549,13 +3650,14 @@
       <c r="F81" s="45"/>
       <c r="G81" s="50"/>
       <c r="H81" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
       <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
+      <c r="L81" s="27">
+        <v>700</v>
+      </c>
       <c r="M81" s="27"/>
       <c r="N81" s="27"/>
       <c r="O81" s="27"/>
@@ -3563,13 +3665,13 @@
       <c r="Q81" s="27"/>
       <c r="R81" s="27"/>
       <c r="S81" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>700</v>
       </c>
       <c r="T81" s="3"/>
     </row>
     <row r="82" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="61"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="1" t="s">
         <v>68</v>
       </c>
@@ -3578,13 +3680,14 @@
       <c r="F82" s="15"/>
       <c r="G82" s="50"/>
       <c r="H82" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
       <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
+      <c r="L82" s="27">
+        <v>1200</v>
+      </c>
       <c r="M82" s="27"/>
       <c r="N82" s="27"/>
       <c r="O82" s="27"/>
@@ -3592,13 +3695,13 @@
       <c r="Q82" s="27"/>
       <c r="R82" s="27"/>
       <c r="S82" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1200</v>
       </c>
       <c r="T82" s="3"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B83" s="61"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="1" t="s">
         <v>69</v>
       </c>
@@ -3607,13 +3710,14 @@
       <c r="F83" s="15"/>
       <c r="G83" s="50"/>
       <c r="H83" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I83" s="27"/>
       <c r="J83" s="27"/>
       <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
+      <c r="L83" s="27">
+        <v>700</v>
+      </c>
       <c r="M83" s="27"/>
       <c r="N83" s="27"/>
       <c r="O83" s="27"/>
@@ -3621,13 +3725,13 @@
       <c r="Q83" s="27"/>
       <c r="R83" s="27"/>
       <c r="S83" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>700</v>
       </c>
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B84" s="61"/>
+      <c r="B84" s="63"/>
       <c r="C84" s="1" t="s">
         <v>70</v>
       </c>
@@ -3636,13 +3740,14 @@
       <c r="F84" s="45"/>
       <c r="G84" s="46"/>
       <c r="H84" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
       <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
+      <c r="L84" s="27">
+        <v>150</v>
+      </c>
       <c r="M84" s="27"/>
       <c r="N84" s="27"/>
       <c r="O84" s="27"/>
@@ -3650,13 +3755,13 @@
       <c r="Q84" s="27"/>
       <c r="R84" s="27"/>
       <c r="S84" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>150</v>
       </c>
       <c r="T84" s="3"/>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="61"/>
+      <c r="B85" s="63"/>
       <c r="C85" s="1" t="s">
         <v>71</v>
       </c>
@@ -3665,13 +3770,14 @@
       <c r="F85" s="45"/>
       <c r="G85" s="46"/>
       <c r="H85" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I85" s="27"/>
       <c r="J85" s="27"/>
       <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
+      <c r="L85" s="27">
+        <v>150</v>
+      </c>
       <c r="M85" s="27"/>
       <c r="N85" s="27"/>
       <c r="O85" s="27"/>
@@ -3679,20 +3785,20 @@
       <c r="Q85" s="27"/>
       <c r="R85" s="27"/>
       <c r="S85" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>150</v>
       </c>
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B86" s="61"/>
+      <c r="B86" s="63"/>
       <c r="C86" s="1"/>
       <c r="D86" s="44"/>
       <c r="E86" s="43"/>
       <c r="F86" s="45"/>
       <c r="G86" s="46"/>
       <c r="H86" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I86" s="27"/>
@@ -3706,13 +3812,13 @@
       <c r="Q86" s="27"/>
       <c r="R86" s="27"/>
       <c r="S86" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T86" s="3"/>
     </row>
     <row r="87" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B87" s="61"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="1" t="s">
         <v>72</v>
       </c>
@@ -3721,27 +3827,28 @@
       <c r="F87" s="45"/>
       <c r="G87" s="46"/>
       <c r="H87" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I87" s="27"/>
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
       <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
+      <c r="M87" s="27">
+        <v>200</v>
+      </c>
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
       <c r="P87" s="27"/>
       <c r="Q87" s="27"/>
       <c r="R87" s="27"/>
       <c r="S87" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>200</v>
       </c>
       <c r="T87" s="3"/>
     </row>
     <row r="88" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B88" s="61"/>
+      <c r="B88" s="63"/>
       <c r="C88" s="1" t="s">
         <v>73</v>
       </c>
@@ -3750,27 +3857,28 @@
       <c r="F88" s="45"/>
       <c r="G88" s="46"/>
       <c r="H88" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I88" s="27"/>
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
       <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
+      <c r="M88" s="27">
+        <v>200</v>
+      </c>
       <c r="N88" s="27"/>
       <c r="O88" s="27"/>
       <c r="P88" s="27"/>
       <c r="Q88" s="27"/>
       <c r="R88" s="27"/>
       <c r="S88" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>200</v>
       </c>
       <c r="T88" s="3"/>
     </row>
     <row r="89" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B89" s="61"/>
+      <c r="B89" s="63"/>
       <c r="C89" s="1" t="s">
         <v>74</v>
       </c>
@@ -3779,27 +3887,28 @@
       <c r="F89" s="45"/>
       <c r="G89" s="46"/>
       <c r="H89" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I89" s="27"/>
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
       <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
+      <c r="M89" s="27">
+        <v>250</v>
+      </c>
       <c r="N89" s="27"/>
       <c r="O89" s="27"/>
       <c r="P89" s="27"/>
       <c r="Q89" s="27"/>
       <c r="R89" s="27"/>
       <c r="S89" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>250</v>
       </c>
       <c r="T89" s="3"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B90" s="61"/>
+      <c r="B90" s="63"/>
       <c r="C90" s="1" t="s">
         <v>75</v>
       </c>
@@ -3808,27 +3917,28 @@
       <c r="F90" s="45"/>
       <c r="G90" s="46"/>
       <c r="H90" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I90" s="27"/>
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
+      <c r="M90" s="27">
+        <v>200</v>
+      </c>
       <c r="N90" s="27"/>
       <c r="O90" s="27"/>
       <c r="P90" s="27"/>
       <c r="Q90" s="27"/>
       <c r="R90" s="27"/>
       <c r="S90" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>200</v>
       </c>
       <c r="T90" s="3"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B91" s="61"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="1" t="s">
         <v>76</v>
       </c>
@@ -3837,27 +3947,28 @@
       <c r="F91" s="45"/>
       <c r="G91" s="46"/>
       <c r="H91" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I91" s="27"/>
       <c r="J91" s="27"/>
       <c r="K91" s="27"/>
       <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
+      <c r="M91" s="27">
+        <v>300</v>
+      </c>
       <c r="N91" s="27"/>
       <c r="O91" s="27"/>
       <c r="P91" s="27"/>
       <c r="Q91" s="27"/>
       <c r="R91" s="27"/>
       <c r="S91" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>300</v>
       </c>
       <c r="T91" s="3"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B92" s="61"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="1" t="s">
         <v>51</v>
       </c>
@@ -3866,34 +3977,35 @@
       <c r="F92" s="45"/>
       <c r="G92" s="46"/>
       <c r="H92" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I92" s="27"/>
       <c r="J92" s="27"/>
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
+      <c r="M92" s="27">
+        <v>600</v>
+      </c>
       <c r="N92" s="27"/>
       <c r="O92" s="27"/>
       <c r="P92" s="27"/>
       <c r="Q92" s="27"/>
       <c r="R92" s="27"/>
       <c r="S92" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="T92" s="3"/>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B93" s="61"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="1"/>
       <c r="D93" s="44"/>
       <c r="E93" s="43"/>
       <c r="F93" s="45"/>
       <c r="G93" s="46"/>
       <c r="H93" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I93" s="27"/>
@@ -3907,13 +4019,13 @@
       <c r="Q93" s="27"/>
       <c r="R93" s="27"/>
       <c r="S93" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T93" s="3"/>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B94" s="61"/>
+      <c r="B94" s="63"/>
       <c r="C94" s="1" t="s">
         <v>77</v>
       </c>
@@ -3922,27 +4034,28 @@
       <c r="F94" s="45"/>
       <c r="G94" s="46"/>
       <c r="H94" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="I94" s="27"/>
       <c r="J94" s="27"/>
       <c r="K94" s="27"/>
       <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
+      <c r="M94" s="27">
+        <v>8000</v>
+      </c>
       <c r="N94" s="27"/>
       <c r="O94" s="27"/>
       <c r="P94" s="27"/>
       <c r="Q94" s="27"/>
       <c r="R94" s="27"/>
       <c r="S94" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8000</v>
       </c>
       <c r="T94" s="3"/>
     </row>
     <row r="95" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B95" s="61"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,27 +4064,28 @@
       <c r="F95" s="45"/>
       <c r="G95" s="46"/>
       <c r="H95" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I95" s="27"/>
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
       <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
+      <c r="M95" s="27">
+        <v>2500</v>
+      </c>
       <c r="N95" s="27"/>
       <c r="O95" s="27"/>
       <c r="P95" s="27"/>
       <c r="Q95" s="27"/>
       <c r="R95" s="27"/>
       <c r="S95" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2500</v>
       </c>
       <c r="T95" s="3"/>
     </row>
     <row r="96" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="61"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="1" t="s">
         <v>79</v>
       </c>
@@ -3980,27 +4094,28 @@
       <c r="F96" s="45"/>
       <c r="G96" s="46"/>
       <c r="H96" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I96" s="27"/>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
       <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
+      <c r="N96" s="27">
+        <v>1500</v>
+      </c>
       <c r="O96" s="27"/>
       <c r="P96" s="27"/>
       <c r="Q96" s="27"/>
       <c r="R96" s="27"/>
       <c r="S96" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
       <c r="T96" s="3"/>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B97" s="61"/>
+      <c r="B97" s="63"/>
       <c r="C97" s="1" t="s">
         <v>80</v>
       </c>
@@ -4009,54 +4124,56 @@
       <c r="F97" s="45"/>
       <c r="G97" s="46"/>
       <c r="H97" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I97" s="27"/>
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
       <c r="L97" s="27"/>
       <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
+      <c r="N97" s="27">
+        <v>800</v>
+      </c>
       <c r="O97" s="27"/>
       <c r="P97" s="27"/>
       <c r="Q97" s="27"/>
       <c r="R97" s="27"/>
       <c r="S97" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>800</v>
       </c>
       <c r="T97" s="3"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B98" s="61"/>
+      <c r="B98" s="63"/>
       <c r="C98" s="1"/>
       <c r="D98" s="44"/>
       <c r="E98" s="43"/>
       <c r="F98" s="45"/>
       <c r="G98" s="46"/>
       <c r="H98" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I98" s="27"/>
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
       <c r="L98" s="27"/>
       <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
+      <c r="N98" s="27">
+        <v>600</v>
+      </c>
       <c r="O98" s="27"/>
       <c r="P98" s="27"/>
       <c r="Q98" s="27"/>
       <c r="R98" s="27"/>
       <c r="S98" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="T98" s="3"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B99" s="61"/>
+      <c r="B99" s="63"/>
       <c r="C99" s="1" t="s">
         <v>81</v>
       </c>
@@ -4065,27 +4182,28 @@
       <c r="F99" s="45"/>
       <c r="G99" s="46"/>
       <c r="H99" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I99" s="27"/>
       <c r="J99" s="27"/>
       <c r="K99" s="27"/>
       <c r="L99" s="27"/>
       <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
+      <c r="N99" s="27">
+        <v>450</v>
+      </c>
       <c r="O99" s="27"/>
       <c r="P99" s="27"/>
       <c r="Q99" s="27"/>
       <c r="R99" s="27"/>
       <c r="S99" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>450</v>
       </c>
       <c r="T99" s="3"/>
     </row>
     <row r="100" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B100" s="61"/>
+      <c r="B100" s="63"/>
       <c r="C100" s="1" t="s">
         <v>82</v>
       </c>
@@ -4094,27 +4212,28 @@
       <c r="F100" s="45"/>
       <c r="G100" s="46"/>
       <c r="H100" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I100" s="27"/>
       <c r="J100" s="27"/>
       <c r="K100" s="27"/>
       <c r="L100" s="27"/>
       <c r="M100" s="27"/>
-      <c r="N100" s="27"/>
+      <c r="N100" s="27">
+        <v>1300</v>
+      </c>
       <c r="O100" s="27"/>
       <c r="P100" s="27"/>
       <c r="Q100" s="27"/>
       <c r="R100" s="27"/>
       <c r="S100" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1300</v>
       </c>
       <c r="T100" s="3"/>
     </row>
     <row r="101" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B101" s="61"/>
+      <c r="B101" s="63"/>
       <c r="C101" s="1" t="s">
         <v>83</v>
       </c>
@@ -4123,27 +4242,28 @@
       <c r="F101" s="45"/>
       <c r="G101" s="46"/>
       <c r="H101" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
       <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
+      <c r="N101" s="27">
+        <v>1200</v>
+      </c>
       <c r="O101" s="27"/>
       <c r="P101" s="27"/>
       <c r="Q101" s="27"/>
       <c r="R101" s="27"/>
       <c r="S101" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1200</v>
       </c>
       <c r="T101" s="3"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B102" s="61"/>
+      <c r="B102" s="63"/>
       <c r="C102" s="1" t="s">
         <v>84</v>
       </c>
@@ -4152,34 +4272,35 @@
       <c r="F102" s="45"/>
       <c r="G102" s="46"/>
       <c r="H102" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
       <c r="L102" s="27"/>
       <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
+      <c r="N102" s="27">
+        <v>350</v>
+      </c>
       <c r="O102" s="27"/>
       <c r="P102" s="27"/>
       <c r="Q102" s="27"/>
       <c r="R102" s="27"/>
       <c r="S102" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>350</v>
       </c>
       <c r="T102" s="3"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B103" s="61"/>
+      <c r="B103" s="63"/>
       <c r="C103" s="1"/>
       <c r="D103" s="44"/>
       <c r="E103" s="43"/>
       <c r="F103" s="45"/>
       <c r="G103" s="46"/>
       <c r="H103" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I103" s="27"/>
@@ -4193,13 +4314,13 @@
       <c r="Q103" s="27"/>
       <c r="R103" s="27"/>
       <c r="S103" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T103" s="3"/>
     </row>
     <row r="104" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="61"/>
+      <c r="B104" s="63"/>
       <c r="C104" s="1" t="s">
         <v>85</v>
       </c>
@@ -4208,7 +4329,7 @@
       <c r="F104" s="45"/>
       <c r="G104" s="46"/>
       <c r="H104" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I104" s="27"/>
@@ -4217,18 +4338,20 @@
       <c r="L104" s="27"/>
       <c r="M104" s="27"/>
       <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
+      <c r="O104" s="27">
+        <v>1200</v>
+      </c>
       <c r="P104" s="27"/>
       <c r="Q104" s="27"/>
       <c r="R104" s="27"/>
       <c r="S104" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1200</v>
       </c>
       <c r="T104" s="3"/>
     </row>
     <row r="105" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B105" s="61"/>
+      <c r="B105" s="63"/>
       <c r="C105" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,7 +4360,7 @@
       <c r="F105" s="45"/>
       <c r="G105" s="46"/>
       <c r="H105" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I105" s="27"/>
@@ -4246,18 +4369,20 @@
       <c r="L105" s="27"/>
       <c r="M105" s="27"/>
       <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
+      <c r="O105" s="27">
+        <v>1200</v>
+      </c>
       <c r="P105" s="27"/>
       <c r="Q105" s="27"/>
       <c r="R105" s="27"/>
       <c r="S105" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1200</v>
       </c>
       <c r="T105" s="3"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B106" s="61"/>
+      <c r="B106" s="63"/>
       <c r="C106" s="1" t="s">
         <v>87</v>
       </c>
@@ -4266,7 +4391,7 @@
       <c r="F106" s="45"/>
       <c r="G106" s="46"/>
       <c r="H106" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I106" s="27"/>
@@ -4275,18 +4400,20 @@
       <c r="L106" s="27"/>
       <c r="M106" s="27"/>
       <c r="N106" s="27"/>
-      <c r="O106" s="27"/>
+      <c r="O106" s="27">
+        <v>400</v>
+      </c>
       <c r="P106" s="27"/>
       <c r="Q106" s="27"/>
       <c r="R106" s="27"/>
       <c r="S106" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>400</v>
       </c>
       <c r="T106" s="3"/>
     </row>
     <row r="107" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B107" s="61"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="1" t="s">
         <v>88</v>
       </c>
@@ -4295,7 +4422,7 @@
       <c r="F107" s="45"/>
       <c r="G107" s="46"/>
       <c r="H107" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I107" s="27"/>
@@ -4304,25 +4431,27 @@
       <c r="L107" s="27"/>
       <c r="M107" s="27"/>
       <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
+      <c r="O107" s="27">
+        <v>2000</v>
+      </c>
       <c r="P107" s="27"/>
       <c r="Q107" s="27"/>
       <c r="R107" s="27"/>
       <c r="S107" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2000</v>
       </c>
       <c r="T107" s="3"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B108" s="61"/>
+      <c r="B108" s="63"/>
       <c r="C108" s="1"/>
       <c r="D108" s="44"/>
       <c r="E108" s="43"/>
       <c r="F108" s="45"/>
       <c r="G108" s="46"/>
       <c r="H108" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I108" s="27"/>
@@ -4336,13 +4465,13 @@
       <c r="Q108" s="27"/>
       <c r="R108" s="27"/>
       <c r="S108" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T108" s="3"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B109" s="61"/>
+      <c r="B109" s="63"/>
       <c r="C109" s="1" t="s">
         <v>89</v>
       </c>
@@ -4351,8 +4480,7 @@
       <c r="F109" s="45"/>
       <c r="G109" s="46"/>
       <c r="H109" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I109" s="27"/>
       <c r="J109" s="27"/>
@@ -4360,18 +4488,20 @@
       <c r="L109" s="27"/>
       <c r="M109" s="27"/>
       <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
+      <c r="O109" s="27">
+        <v>1300</v>
+      </c>
       <c r="P109" s="27"/>
       <c r="Q109" s="27"/>
       <c r="R109" s="27"/>
       <c r="S109" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1300</v>
       </c>
       <c r="T109" s="3"/>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B110" s="61"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="1" t="s">
         <v>90</v>
       </c>
@@ -4380,8 +4510,7 @@
       <c r="F110" s="45"/>
       <c r="G110" s="46"/>
       <c r="H110" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I110" s="27"/>
       <c r="J110" s="27"/>
@@ -4389,18 +4518,20 @@
       <c r="L110" s="27"/>
       <c r="M110" s="27"/>
       <c r="N110" s="27"/>
-      <c r="O110" s="27"/>
+      <c r="O110" s="27">
+        <v>1400</v>
+      </c>
       <c r="P110" s="27"/>
       <c r="Q110" s="27"/>
       <c r="R110" s="27"/>
       <c r="S110" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1400</v>
       </c>
       <c r="T110" s="3"/>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B111" s="61"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="1" t="s">
         <v>91</v>
       </c>
@@ -4409,8 +4540,7 @@
       <c r="F111" s="45"/>
       <c r="G111" s="46"/>
       <c r="H111" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I111" s="27"/>
       <c r="J111" s="27"/>
@@ -4418,25 +4548,27 @@
       <c r="L111" s="27"/>
       <c r="M111" s="27"/>
       <c r="N111" s="27"/>
-      <c r="O111" s="27"/>
+      <c r="O111" s="27">
+        <v>400</v>
+      </c>
       <c r="P111" s="27"/>
       <c r="Q111" s="27"/>
       <c r="R111" s="27"/>
       <c r="S111" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>400</v>
       </c>
       <c r="T111" s="3"/>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B112" s="61"/>
+      <c r="B112" s="63"/>
       <c r="C112" s="1"/>
       <c r="D112" s="44"/>
       <c r="E112" s="43"/>
       <c r="F112" s="45"/>
       <c r="G112" s="46"/>
       <c r="H112" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I112" s="27"/>
@@ -4450,13 +4582,13 @@
       <c r="Q112" s="27"/>
       <c r="R112" s="27"/>
       <c r="S112" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T112" s="3"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B113" s="61"/>
+      <c r="B113" s="63"/>
       <c r="C113" s="1" t="s">
         <v>92</v>
       </c>
@@ -4465,8 +4597,7 @@
       <c r="F113" s="45"/>
       <c r="G113" s="46"/>
       <c r="H113" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I113" s="27"/>
       <c r="J113" s="27"/>
@@ -4474,18 +4605,20 @@
       <c r="L113" s="27"/>
       <c r="M113" s="27"/>
       <c r="N113" s="27"/>
-      <c r="O113" s="27"/>
+      <c r="O113" s="27">
+        <v>6000</v>
+      </c>
       <c r="P113" s="27"/>
       <c r="Q113" s="27"/>
       <c r="R113" s="27"/>
       <c r="S113" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>6000</v>
       </c>
       <c r="T113" s="3"/>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B114" s="61"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="1" t="s">
         <v>93</v>
       </c>
@@ -4494,8 +4627,7 @@
       <c r="F114" s="45"/>
       <c r="G114" s="46"/>
       <c r="H114" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I114" s="27"/>
       <c r="J114" s="27"/>
@@ -4503,18 +4635,20 @@
       <c r="L114" s="27"/>
       <c r="M114" s="27"/>
       <c r="N114" s="27"/>
-      <c r="O114" s="27"/>
+      <c r="O114" s="27">
+        <v>7000</v>
+      </c>
       <c r="P114" s="27"/>
       <c r="Q114" s="27"/>
       <c r="R114" s="27"/>
       <c r="S114" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7000</v>
       </c>
       <c r="T114" s="3"/>
     </row>
     <row r="115" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B115" s="61"/>
+      <c r="B115" s="63"/>
       <c r="C115" s="1" t="s">
         <v>94</v>
       </c>
@@ -4523,8 +4657,7 @@
       <c r="F115" s="45"/>
       <c r="G115" s="46"/>
       <c r="H115" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I115" s="27"/>
       <c r="J115" s="27"/>
@@ -4532,18 +4665,20 @@
       <c r="L115" s="27"/>
       <c r="M115" s="27"/>
       <c r="N115" s="27"/>
-      <c r="O115" s="27"/>
+      <c r="O115" s="27">
+        <v>7000</v>
+      </c>
       <c r="P115" s="27"/>
       <c r="Q115" s="27"/>
       <c r="R115" s="27"/>
       <c r="S115" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>7000</v>
       </c>
       <c r="T115" s="3"/>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B116" s="61"/>
+      <c r="B116" s="63"/>
       <c r="C116" s="1" t="s">
         <v>95</v>
       </c>
@@ -4552,8 +4687,7 @@
       <c r="F116" s="45"/>
       <c r="G116" s="46"/>
       <c r="H116" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I116" s="27"/>
       <c r="J116" s="27"/>
@@ -4561,25 +4695,27 @@
       <c r="L116" s="27"/>
       <c r="M116" s="27"/>
       <c r="N116" s="27"/>
-      <c r="O116" s="27"/>
+      <c r="O116" s="27">
+        <v>1000</v>
+      </c>
       <c r="P116" s="27"/>
       <c r="Q116" s="27"/>
       <c r="R116" s="27"/>
       <c r="S116" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1000</v>
       </c>
       <c r="T116" s="3"/>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B117" s="61"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="1"/>
       <c r="D117" s="44"/>
       <c r="E117" s="43"/>
       <c r="F117" s="45"/>
       <c r="G117" s="46"/>
       <c r="H117" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I117" s="27"/>
@@ -4593,20 +4729,20 @@
       <c r="Q117" s="27"/>
       <c r="R117" s="27"/>
       <c r="S117" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T117" s="3"/>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B118" s="61"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="1"/>
       <c r="D118" s="44"/>
       <c r="E118" s="43"/>
       <c r="F118" s="45"/>
       <c r="G118" s="46"/>
       <c r="H118" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I118" s="27"/>
@@ -4620,13 +4756,13 @@
       <c r="Q118" s="27"/>
       <c r="R118" s="27"/>
       <c r="S118" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T118" s="3"/>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B119" s="61"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="33" t="s">
         <v>16</v>
       </c>
@@ -4639,7 +4775,7 @@
       </c>
       <c r="H119" s="36">
         <f>SUM(H75:H118)</f>
-        <v>0</v>
+        <v>49100</v>
       </c>
       <c r="I119" s="36">
         <f t="shared" ref="I119:N119" si="23">SUM(I75:I118)</f>
@@ -4651,23 +4787,23 @@
       </c>
       <c r="K119" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L119" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>5750</v>
       </c>
       <c r="M119" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>12250</v>
       </c>
       <c r="N119" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="O119" s="36">
         <f>SUM(O75:O118)</f>
-        <v>0</v>
+        <v>28900</v>
       </c>
       <c r="P119" s="36">
         <f t="shared" ref="P119:R119" si="24">SUM(P75:P118)</f>
@@ -4683,7 +4819,7 @@
       </c>
       <c r="S119" s="37">
         <f>SUM(S75:S118)</f>
-        <v>0</v>
+        <v>53900</v>
       </c>
       <c r="T119" s="3"/>
     </row>
@@ -4709,7 +4845,7 @@
       <c r="T120" s="3"/>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B121" s="61" t="s">
+      <c r="B121" s="63" t="s">
         <v>96</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -4720,8 +4856,7 @@
       <c r="F121" s="45"/>
       <c r="G121" s="50"/>
       <c r="H121" s="29">
-        <f t="shared" ref="H121:H126" si="25">F121*G121</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I121" s="27"/>
       <c r="J121" s="27"/>
@@ -4729,18 +4864,20 @@
       <c r="L121" s="27"/>
       <c r="M121" s="27"/>
       <c r="N121" s="27"/>
-      <c r="O121" s="27"/>
+      <c r="O121" s="27">
+        <v>1500</v>
+      </c>
       <c r="P121" s="27"/>
       <c r="Q121" s="27"/>
       <c r="R121" s="27"/>
       <c r="S121" s="28">
-        <f t="shared" ref="S121:S126" si="26">SUM(I121:R121)</f>
-        <v>0</v>
+        <f t="shared" ref="S121:S126" si="25">SUM(I121:R121)</f>
+        <v>1500</v>
       </c>
       <c r="T121" s="3"/>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B122" s="61"/>
+      <c r="B122" s="63"/>
       <c r="C122" s="1" t="s">
         <v>98</v>
       </c>
@@ -4749,8 +4886,7 @@
       <c r="F122" s="45"/>
       <c r="G122" s="50"/>
       <c r="H122" s="29">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I122" s="27"/>
       <c r="J122" s="27"/>
@@ -4758,18 +4894,20 @@
       <c r="L122" s="27"/>
       <c r="M122" s="27"/>
       <c r="N122" s="27"/>
-      <c r="O122" s="27"/>
+      <c r="O122" s="27">
+        <v>5000</v>
+      </c>
       <c r="P122" s="27"/>
       <c r="Q122" s="27"/>
       <c r="R122" s="27"/>
       <c r="S122" s="28">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>5000</v>
       </c>
       <c r="T122" s="3"/>
     </row>
     <row r="123" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B123" s="61"/>
+      <c r="B123" s="63"/>
       <c r="C123" s="1" t="s">
         <v>99</v>
       </c>
@@ -4778,8 +4916,7 @@
       <c r="F123" s="45"/>
       <c r="G123" s="46"/>
       <c r="H123" s="29">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I123" s="27"/>
       <c r="J123" s="27"/>
@@ -4787,18 +4924,20 @@
       <c r="L123" s="27"/>
       <c r="M123" s="27"/>
       <c r="N123" s="27"/>
-      <c r="O123" s="27"/>
+      <c r="O123" s="27">
+        <v>1200</v>
+      </c>
       <c r="P123" s="27"/>
       <c r="Q123" s="27"/>
       <c r="R123" s="27"/>
       <c r="S123" s="28">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1200</v>
       </c>
       <c r="T123" s="3"/>
     </row>
     <row r="124" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B124" s="61"/>
+      <c r="B124" s="63"/>
       <c r="C124" s="1" t="s">
         <v>100</v>
       </c>
@@ -4807,8 +4946,7 @@
       <c r="F124" s="45"/>
       <c r="G124" s="46"/>
       <c r="H124" s="29">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I124" s="27"/>
       <c r="J124" s="27"/>
@@ -4816,25 +4954,27 @@
       <c r="L124" s="27"/>
       <c r="M124" s="27"/>
       <c r="N124" s="27"/>
-      <c r="O124" s="27"/>
+      <c r="O124" s="27">
+        <v>2000</v>
+      </c>
       <c r="P124" s="27"/>
       <c r="Q124" s="27"/>
       <c r="R124" s="27"/>
       <c r="S124" s="28">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>2000</v>
       </c>
       <c r="T124" s="3"/>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B125" s="61"/>
+      <c r="B125" s="63"/>
       <c r="C125" s="1"/>
       <c r="D125" s="44"/>
       <c r="E125" s="43"/>
       <c r="F125" s="45"/>
       <c r="G125" s="46"/>
       <c r="H125" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H121:H126" si="26">F125*G125</f>
         <v>0</v>
       </c>
       <c r="I125" s="27"/>
@@ -4848,20 +4988,20 @@
       <c r="Q125" s="27"/>
       <c r="R125" s="27"/>
       <c r="S125" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T125" s="3"/>
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B126" s="61"/>
+      <c r="B126" s="63"/>
       <c r="C126" s="43"/>
       <c r="D126" s="44"/>
       <c r="E126" s="43"/>
       <c r="F126" s="45"/>
       <c r="G126" s="46"/>
       <c r="H126" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I126" s="27"/>
@@ -4875,13 +5015,13 @@
       <c r="Q126" s="27"/>
       <c r="R126" s="27"/>
       <c r="S126" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T126" s="3"/>
     </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B127" s="61"/>
+      <c r="B127" s="63"/>
       <c r="C127" s="33" t="s">
         <v>16</v>
       </c>
@@ -4894,7 +5034,7 @@
       </c>
       <c r="H127" s="36">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="I127" s="36">
         <f t="shared" si="27"/>
@@ -4922,7 +5062,7 @@
       </c>
       <c r="O127" s="36">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="P127" s="36">
         <f t="shared" ref="P127" si="28">SUM(P121:P126)</f>
@@ -4938,7 +5078,7 @@
       </c>
       <c r="S127" s="37">
         <f>SUM(S121:S126)</f>
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="T127" s="3"/>
     </row>
@@ -4964,7 +5104,7 @@
       <c r="T128" s="3"/>
     </row>
     <row r="129" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B129" s="61" t="s">
+      <c r="B129" s="63" t="s">
         <v>101</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -4981,18 +5121,20 @@
       <c r="L129" s="27"/>
       <c r="M129" s="27"/>
       <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
+      <c r="O129" s="27">
+        <v>600</v>
+      </c>
       <c r="P129" s="27"/>
       <c r="Q129" s="27"/>
       <c r="R129" s="27"/>
       <c r="S129" s="28">
         <f t="shared" ref="S129:S134" si="29">SUM(I129:R129)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T129" s="3"/>
     </row>
     <row r="130" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B130" s="61"/>
+      <c r="B130" s="63"/>
       <c r="C130" s="1" t="s">
         <v>103</v>
       </c>
@@ -5007,18 +5149,20 @@
       <c r="L130" s="27"/>
       <c r="M130" s="27"/>
       <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
+      <c r="O130" s="27">
+        <v>1500</v>
+      </c>
       <c r="P130" s="27"/>
       <c r="Q130" s="27"/>
       <c r="R130" s="27"/>
       <c r="S130" s="28">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B131" s="61"/>
+      <c r="B131" s="63"/>
       <c r="C131" s="1" t="s">
         <v>104</v>
       </c>
@@ -5033,18 +5177,20 @@
       <c r="L131" s="27"/>
       <c r="M131" s="27"/>
       <c r="N131" s="27"/>
-      <c r="O131" s="27"/>
+      <c r="O131" s="27">
+        <v>300</v>
+      </c>
       <c r="P131" s="27"/>
       <c r="Q131" s="27"/>
       <c r="R131" s="27"/>
       <c r="S131" s="28">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B132" s="61"/>
+      <c r="B132" s="63"/>
       <c r="C132" s="1" t="s">
         <v>105</v>
       </c>
@@ -5059,18 +5205,20 @@
       <c r="L132" s="27"/>
       <c r="M132" s="27"/>
       <c r="N132" s="27"/>
-      <c r="O132" s="27"/>
+      <c r="O132" s="27">
+        <v>1000</v>
+      </c>
       <c r="P132" s="27"/>
       <c r="Q132" s="27"/>
       <c r="R132" s="27"/>
       <c r="S132" s="28">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B133" s="61"/>
+      <c r="B133" s="63"/>
       <c r="C133" s="1"/>
       <c r="D133" s="44"/>
       <c r="E133" s="43"/>
@@ -5094,7 +5242,7 @@
       <c r="T133" s="3"/>
     </row>
     <row r="134" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B134" s="61"/>
+      <c r="B134" s="63"/>
       <c r="C134" s="1"/>
       <c r="D134" s="44"/>
       <c r="E134" s="43"/>
@@ -5118,7 +5266,7 @@
       <c r="T134" s="3"/>
     </row>
     <row r="135" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B135" s="61"/>
+      <c r="B135" s="63"/>
       <c r="C135" s="33" t="s">
         <v>16</v>
       </c>
@@ -5159,7 +5307,7 @@
       </c>
       <c r="O135" s="36">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="P135" s="36">
         <f t="shared" si="30"/>
@@ -5175,7 +5323,7 @@
       </c>
       <c r="S135" s="37">
         <f>SUM(S129:S134)</f>
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="T135" s="3"/>
     </row>
@@ -5211,35 +5359,35 @@
       <c r="G137" s="51"/>
       <c r="H137" s="51">
         <f>SUM(H11,H18,H55,H61,H73,H119,H127,H135,H44,H30,)</f>
-        <v>0</v>
+        <v>121340</v>
       </c>
       <c r="I137" s="51">
         <f t="shared" ref="I137:R137" si="31">SUM(I11,I18,I55,I61,I73,I119,I127,I135,I44,I30,)</f>
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="J137" s="51">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>22140</v>
       </c>
       <c r="K137" s="51">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>26500</v>
       </c>
       <c r="L137" s="51">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>9850</v>
       </c>
       <c r="M137" s="51">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>12750</v>
       </c>
       <c r="N137" s="51">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="O137" s="51">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="P137" s="51">
         <f t="shared" si="31"/>
@@ -5255,7 +5403,7 @@
       </c>
       <c r="S137" s="51">
         <f>SUM(S11,S18,S55,S61,S73,S119,S127,S135,S44,S30,)</f>
-        <v>0</v>
+        <v>146140</v>
       </c>
       <c r="T137" s="3"/>
     </row>
@@ -5348,35 +5496,35 @@
       <c r="G141" s="45"/>
       <c r="H141" s="47">
         <f t="shared" ref="H141:R141" si="33">SUM(H137:H140)</f>
-        <v>0</v>
+        <v>121340</v>
       </c>
       <c r="I141" s="47">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="J141" s="47">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>22140</v>
       </c>
       <c r="K141" s="47">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>26500</v>
       </c>
       <c r="L141" s="47">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>9850</v>
       </c>
       <c r="M141" s="47">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>12750</v>
       </c>
       <c r="N141" s="47">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="O141" s="47">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="P141" s="47">
         <f t="shared" si="33"/>
@@ -5392,7 +5540,7 @@
       </c>
       <c r="S141" s="47">
         <f>SUM(S137:S140)</f>
-        <v>0</v>
+        <v>146140</v>
       </c>
       <c r="T141" s="3"/>
     </row>
